--- a/capiq_data/in_process_data/IQ386225.xlsx
+++ b/capiq_data/in_process_data/IQ386225.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146606E-79CE-4BCB-A05B-EB41E9C23B92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB642E-96D1-4F4F-81DA-D3FC69DF8A01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2849386d-5d07-403c-bed5-44d4863ba92e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3a981a41-2c3f-4229-8cd4-749731e5f9c6"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>147.6</v>
+        <v>56.5</v>
       </c>
       <c r="D2">
-        <v>2020.8</v>
+        <v>529.1</v>
       </c>
       <c r="E2">
-        <v>828.9</v>
+        <v>241.3</v>
       </c>
       <c r="F2">
-        <v>836</v>
+        <v>191.4</v>
       </c>
       <c r="G2">
-        <v>1246.0999999999999</v>
+        <v>321.5</v>
       </c>
       <c r="H2">
-        <v>19461.900000000001</v>
+        <v>3561.5</v>
       </c>
       <c r="I2">
-        <v>606.5</v>
+        <v>103.4</v>
       </c>
       <c r="J2">
-        <v>5865.1</v>
+        <v>1200.2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2676.5</v>
+        <v>383.6</v>
       </c>
       <c r="O2">
-        <v>11613</v>
+        <v>1886.6</v>
       </c>
       <c r="P2">
-        <v>6743.6</v>
+        <v>1256.7</v>
       </c>
       <c r="Q2">
-        <v>-32.200000000000003</v>
+        <v>-2.8</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>30000</v>
+        <v>12700</v>
       </c>
       <c r="T2">
-        <v>7848.9</v>
+        <v>1674.9</v>
       </c>
       <c r="U2">
-        <v>88.3</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>470</v>
+        <v>146.6</v>
       </c>
       <c r="W2">
-        <v>-76.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-304.10000000000002</v>
+        <v>10.4</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>147.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>158.19999999999999</v>
+        <v>49.6</v>
       </c>
       <c r="D3">
-        <v>1964.9</v>
+        <v>535.4</v>
       </c>
       <c r="E3">
-        <v>839.5</v>
+        <v>250.6</v>
       </c>
       <c r="F3">
-        <v>805.2</v>
+        <v>205.7</v>
       </c>
       <c r="G3">
-        <v>1210.3</v>
+        <v>402.7</v>
       </c>
       <c r="H3">
-        <v>19396.7</v>
+        <v>3571.3</v>
       </c>
       <c r="I3">
-        <v>431.6</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>6192.3</v>
+        <v>1141</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-431.1</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="N3">
-        <v>2370.8000000000002</v>
+        <v>413.9</v>
       </c>
       <c r="O3">
-        <v>11599.1</v>
+        <v>1866.4</v>
       </c>
       <c r="P3">
-        <v>6821.1</v>
+        <v>1258.3</v>
       </c>
       <c r="Q3">
-        <v>-20.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7797.6</v>
+        <v>1704.9</v>
       </c>
       <c r="U3">
-        <v>67.900000000000006</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="V3">
-        <v>433.7</v>
+        <v>86.2</v>
       </c>
       <c r="W3">
-        <v>-76.7</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-159.80000000000001</v>
+        <v>-18.8</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>158.19999999999999</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>46.5</v>
+        <v>58.1</v>
       </c>
       <c r="D4">
-        <v>2086.6</v>
+        <v>576</v>
       </c>
       <c r="E4">
-        <v>872.3</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="F4">
-        <v>848.8</v>
+        <v>221.5</v>
       </c>
       <c r="G4">
-        <v>1479.6</v>
+        <v>350.9</v>
       </c>
       <c r="H4">
-        <v>19682</v>
+        <v>3914.2</v>
       </c>
       <c r="I4">
-        <v>476.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="J4">
-        <v>6907.7</v>
+        <v>1163.2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2204</v>
+        <v>634.9</v>
       </c>
       <c r="O4">
-        <v>12015.3</v>
+        <v>2165.6</v>
       </c>
       <c r="P4">
-        <v>7305.5</v>
+        <v>1445.8</v>
       </c>
       <c r="Q4">
-        <v>252.6</v>
+        <v>-10.3</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7666.7</v>
+        <v>1748.6</v>
       </c>
       <c r="U4">
-        <v>320.5</v>
+        <v>9.1</v>
       </c>
       <c r="V4">
-        <v>361.9</v>
+        <v>137.6</v>
       </c>
       <c r="W4">
-        <v>-75.8</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>68.599999999999994</v>
+        <v>144.4</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>46.5</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>193.5</v>
+        <v>56.7</v>
       </c>
       <c r="D5">
-        <v>2116.1999999999998</v>
+        <v>582.6</v>
       </c>
       <c r="E5">
-        <v>901.3</v>
+        <v>271.5</v>
       </c>
       <c r="F5">
-        <v>856.2</v>
+        <v>224.4</v>
       </c>
       <c r="G5">
-        <v>1254.4000000000001</v>
+        <v>348.4</v>
       </c>
       <c r="H5">
-        <v>19456.2</v>
+        <v>3889.1</v>
       </c>
       <c r="I5">
-        <v>515.20000000000005</v>
+        <v>79.7</v>
       </c>
       <c r="J5">
-        <v>7021.6</v>
+        <v>1301.5999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1857.5</v>
+        <v>420.3</v>
       </c>
       <c r="O5">
-        <v>11841.7</v>
+        <v>2103.4</v>
       </c>
       <c r="P5">
-        <v>7031.3</v>
+        <v>1331.7</v>
       </c>
       <c r="Q5">
-        <v>-247.9</v>
+        <v>-9.1</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7614.5</v>
+        <v>1785.7</v>
       </c>
       <c r="U5">
-        <v>72.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>491.2</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="W5">
-        <v>-75.3</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-522.1</v>
+        <v>-135.30000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>193.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>191</v>
+        <v>-38.9</v>
       </c>
       <c r="D6">
-        <v>2025.2</v>
+        <v>563.5</v>
       </c>
       <c r="E6">
-        <v>825.8</v>
+        <v>232.9</v>
       </c>
       <c r="F6">
-        <v>817.6</v>
+        <v>207.6</v>
       </c>
       <c r="G6">
-        <v>1265.7</v>
+        <v>324.8</v>
       </c>
       <c r="H6">
-        <v>19551.5</v>
+        <v>3856.3</v>
       </c>
       <c r="I6">
-        <v>563.6</v>
+        <v>107.9</v>
       </c>
       <c r="J6">
-        <v>6887</v>
+        <v>1334.1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1897.5</v>
+        <v>386.4</v>
       </c>
       <c r="O6">
-        <v>11868.1</v>
+        <v>2100.4</v>
       </c>
       <c r="P6">
-        <v>6921.8</v>
+        <v>1367.7</v>
       </c>
       <c r="Q6">
-        <v>-6.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>30000</v>
+        <v>12700</v>
       </c>
       <c r="T6">
-        <v>7683.4</v>
+        <v>1755.9</v>
       </c>
       <c r="U6">
-        <v>66.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="V6">
-        <v>479.9</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="W6">
-        <v>-81.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-225.2</v>
+        <v>46.4</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>191</v>
+        <v>-38.9</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>142.9</v>
+        <v>54.9</v>
       </c>
       <c r="D7">
-        <v>1982.4</v>
+        <v>551.9</v>
       </c>
       <c r="E7">
-        <v>808.4</v>
+        <v>224</v>
       </c>
       <c r="F7">
-        <v>779.2</v>
+        <v>209.9</v>
       </c>
       <c r="G7">
-        <v>1179.2</v>
+        <v>351.9</v>
       </c>
       <c r="H7">
-        <v>19455.900000000001</v>
+        <v>3872</v>
       </c>
       <c r="I7">
-        <v>451</v>
+        <v>79.3</v>
       </c>
       <c r="J7">
-        <v>6870.3</v>
+        <v>1334.8</v>
       </c>
       <c r="K7">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-586.70000000000005</v>
+        <v>-30.8</v>
       </c>
       <c r="N7">
-        <v>1715.8</v>
+        <v>375.4</v>
       </c>
       <c r="O7">
-        <v>11702.2</v>
+        <v>2105.1</v>
       </c>
       <c r="P7">
-        <v>6904.5</v>
+        <v>1338.3</v>
       </c>
       <c r="Q7">
-        <v>7.2</v>
+        <v>32.4</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7753.7</v>
+        <v>1766.9</v>
       </c>
       <c r="U7">
-        <v>73.5</v>
+        <v>48.5</v>
       </c>
       <c r="V7">
-        <v>334.2</v>
+        <v>134.5</v>
       </c>
       <c r="W7">
-        <v>-81.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-84.7</v>
+        <v>-76</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>142.9</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>149.19999999999999</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>2060.6</v>
+        <v>598.20000000000005</v>
       </c>
       <c r="E8">
-        <v>845.3</v>
+        <v>246</v>
       </c>
       <c r="F8">
-        <v>822.1</v>
+        <v>226.7</v>
       </c>
       <c r="G8">
-        <v>1234.3</v>
+        <v>432.1</v>
       </c>
       <c r="H8">
-        <v>19590.3</v>
+        <v>3984.2</v>
       </c>
       <c r="I8">
-        <v>529.5</v>
+        <v>76.2</v>
       </c>
       <c r="J8">
-        <v>7079.4</v>
+        <v>1361.7</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1752.3</v>
+        <v>412.4</v>
       </c>
       <c r="O8">
-        <v>11907.6</v>
+        <v>2191.5</v>
       </c>
       <c r="P8">
-        <v>7113.4</v>
+        <v>1365.2</v>
       </c>
       <c r="Q8">
-        <v>-4.2</v>
+        <v>61.9</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7682.7</v>
+        <v>1792.7</v>
       </c>
       <c r="U8">
-        <v>69.3</v>
+        <v>110.4</v>
       </c>
       <c r="V8">
-        <v>360.8</v>
+        <v>152.5</v>
       </c>
       <c r="W8">
-        <v>-81.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-154.4</v>
+        <v>-11.7</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>149.19999999999999</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>152.69999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="D9">
-        <v>2046.9</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="E9">
-        <v>854.2</v>
+        <v>249.7</v>
       </c>
       <c r="F9">
-        <v>766.4</v>
+        <v>232.1</v>
       </c>
       <c r="G9">
-        <v>1270</v>
+        <v>383.6</v>
       </c>
       <c r="H9">
-        <v>19634.3</v>
+        <v>4046.9</v>
       </c>
       <c r="I9">
-        <v>490.6</v>
+        <v>92.5</v>
       </c>
       <c r="J9">
-        <v>7060</v>
+        <v>1385.4</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1699.2</v>
+        <v>399.4</v>
       </c>
       <c r="O9">
-        <v>11892.7</v>
+        <v>2234</v>
       </c>
       <c r="P9">
-        <v>7104.4</v>
+        <v>1388.8</v>
       </c>
       <c r="Q9">
-        <v>4.7</v>
+        <v>-47.5</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7741.6</v>
+        <v>1812.9</v>
       </c>
       <c r="U9">
-        <v>74</v>
+        <v>62.9</v>
       </c>
       <c r="V9">
-        <v>361.7</v>
+        <v>126.2</v>
       </c>
       <c r="W9">
-        <v>-80.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-117.7</v>
+        <v>-98.3</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>152.69999999999999</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>61.5</v>
       </c>
       <c r="D10">
-        <v>2028.4</v>
+        <v>605.29999999999995</v>
       </c>
       <c r="E10">
-        <v>836.6</v>
+        <v>238.6</v>
       </c>
       <c r="F10">
-        <v>744.9</v>
+        <v>223.5</v>
       </c>
       <c r="G10">
-        <v>1231.3</v>
+        <v>452.3</v>
       </c>
       <c r="H10">
-        <v>19616.900000000001</v>
+        <v>4209.1000000000004</v>
       </c>
       <c r="I10">
-        <v>474.5</v>
+        <v>123.5</v>
       </c>
       <c r="J10">
-        <v>7051.1</v>
+        <v>1439.3</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1695</v>
+        <v>392.2</v>
       </c>
       <c r="O10">
-        <v>11911.2</v>
+        <v>2328</v>
       </c>
       <c r="P10">
-        <v>7070.5</v>
+        <v>1442.1</v>
       </c>
       <c r="Q10">
-        <v>-6.4</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>30000</v>
+        <v>12700</v>
       </c>
       <c r="T10">
-        <v>7705.7</v>
+        <v>1881.1</v>
       </c>
       <c r="U10">
-        <v>67.599999999999994</v>
+        <v>141.5</v>
       </c>
       <c r="V10">
-        <v>457.1</v>
+        <v>156.5</v>
       </c>
       <c r="W10">
-        <v>-85.7</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-218.1</v>
+        <v>58</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>127</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>124.6</v>
+        <v>16.8</v>
       </c>
       <c r="D11">
-        <v>1998.6</v>
+        <v>594.6</v>
       </c>
       <c r="E11">
-        <v>821.9</v>
+        <v>251.3</v>
       </c>
       <c r="F11">
-        <v>770.7</v>
+        <v>226.9</v>
       </c>
       <c r="G11">
-        <v>1223.3</v>
+        <v>495.7</v>
       </c>
       <c r="H11">
-        <v>19639.099999999999</v>
+        <v>4153.8999999999996</v>
       </c>
       <c r="I11">
-        <v>464.3</v>
+        <v>97.1</v>
       </c>
       <c r="J11">
-        <v>7007.8</v>
+        <v>1441.4</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-745.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="N11">
-        <v>1675.3</v>
+        <v>387.4</v>
       </c>
       <c r="O11">
-        <v>11904.7</v>
+        <v>2307</v>
       </c>
       <c r="P11">
-        <v>7032.9</v>
+        <v>1444.1</v>
       </c>
       <c r="Q11">
-        <v>62.5</v>
+        <v>24.6</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7734.4</v>
+        <v>1846.9</v>
       </c>
       <c r="U11">
-        <v>130.1</v>
+        <v>166.1</v>
       </c>
       <c r="V11">
-        <v>419.8</v>
+        <v>100.8</v>
       </c>
       <c r="W11">
-        <v>-84.9</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-135.6</v>
+        <v>-52.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>124.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>56.3</v>
+        <v>60.4</v>
       </c>
       <c r="D12">
-        <v>2111.6999999999998</v>
+        <v>637.29999999999995</v>
       </c>
       <c r="E12">
-        <v>876.5</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="F12">
-        <v>701.7</v>
+        <v>238</v>
       </c>
       <c r="G12">
-        <v>1268.8</v>
+        <v>585</v>
       </c>
       <c r="H12">
-        <v>19774.2</v>
+        <v>4291.5</v>
       </c>
       <c r="I12">
-        <v>527.6</v>
+        <v>104.3</v>
       </c>
       <c r="J12">
-        <v>7013.3</v>
+        <v>1252.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1750.8</v>
+        <v>638.4</v>
       </c>
       <c r="O12">
-        <v>12061</v>
+        <v>2392.1999999999998</v>
       </c>
       <c r="P12">
-        <v>7028.6</v>
+        <v>1480.2</v>
       </c>
       <c r="Q12">
-        <v>-33.4</v>
+        <v>81.5</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7713.2</v>
+        <v>1899.3</v>
       </c>
       <c r="U12">
-        <v>96.7</v>
+        <v>247.6</v>
       </c>
       <c r="V12">
-        <v>341.7</v>
+        <v>151.5</v>
       </c>
       <c r="W12">
-        <v>-84.9</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-94.9</v>
+        <v>27.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>56.3</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>171.4</v>
+        <v>44.7</v>
       </c>
       <c r="D13">
-        <v>2165.4</v>
+        <v>648</v>
       </c>
       <c r="E13">
-        <v>906.8</v>
+        <v>266.3</v>
       </c>
       <c r="F13">
-        <v>847.8</v>
+        <v>214.3</v>
       </c>
       <c r="G13">
-        <v>1290.4000000000001</v>
+        <v>470.3</v>
       </c>
       <c r="H13">
-        <v>19826</v>
+        <v>4395.3999999999996</v>
       </c>
       <c r="I13">
-        <v>505.5</v>
+        <v>118.7</v>
       </c>
       <c r="J13">
-        <v>7023.6</v>
+        <v>1261.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1769.2</v>
+        <v>680.5</v>
       </c>
       <c r="O13">
-        <v>12086.6</v>
+        <v>2501.5</v>
       </c>
       <c r="P13">
-        <v>7039.1</v>
+        <v>1496.6</v>
       </c>
       <c r="Q13">
-        <v>0.6</v>
+        <v>-122.9</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7739.4</v>
+        <v>1893.9</v>
       </c>
       <c r="U13">
-        <v>97.3</v>
+        <v>124.7</v>
       </c>
       <c r="V13">
-        <v>375.7</v>
+        <v>180.1</v>
       </c>
       <c r="W13">
-        <v>-85.1</v>
+        <v>-9.6</v>
       </c>
       <c r="X13">
-        <v>-140.4</v>
+        <v>-30.8</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>171.4</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>236.6</v>
+        <v>55.7</v>
       </c>
       <c r="D14">
-        <v>2141.5</v>
+        <v>637.9</v>
       </c>
       <c r="E14">
-        <v>890.7</v>
+        <v>248.9</v>
       </c>
       <c r="F14">
-        <v>857.5</v>
+        <v>233.2</v>
       </c>
       <c r="G14">
-        <v>1421.9</v>
+        <v>556</v>
       </c>
       <c r="H14">
-        <v>19949.2</v>
+        <v>4554.1000000000004</v>
       </c>
       <c r="I14">
-        <v>511.4</v>
+        <v>129.1</v>
       </c>
       <c r="J14">
-        <v>7006.8</v>
+        <v>1289.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1717.1</v>
+        <v>672</v>
       </c>
       <c r="O14">
-        <v>12043.1</v>
+        <v>2649.6</v>
       </c>
       <c r="P14">
-        <v>7022.5</v>
+        <v>1520.3</v>
       </c>
       <c r="Q14">
-        <v>116</v>
+        <v>-5.5</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>31000</v>
+        <v>12900</v>
       </c>
       <c r="T14">
-        <v>7906.1</v>
+        <v>1904.5</v>
       </c>
       <c r="U14">
-        <v>213.3</v>
+        <v>119.2</v>
       </c>
       <c r="V14">
-        <v>411</v>
+        <v>168.1</v>
       </c>
       <c r="W14">
-        <v>-93.6</v>
+        <v>-9.4</v>
       </c>
       <c r="X14">
-        <v>-97.7</v>
+        <v>-15.3</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>236.6</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>132.5</v>
+        <v>56.9</v>
       </c>
       <c r="D15">
-        <v>2077.1999999999998</v>
+        <v>637.29999999999995</v>
       </c>
       <c r="E15">
-        <v>873.2</v>
+        <v>250</v>
       </c>
       <c r="F15">
-        <v>752.5</v>
+        <v>233.8</v>
       </c>
       <c r="G15">
-        <v>1306.9000000000001</v>
+        <v>554.4</v>
       </c>
       <c r="H15">
-        <v>19842.5</v>
+        <v>4545.3</v>
       </c>
       <c r="I15">
-        <v>491.1</v>
+        <v>113.2</v>
       </c>
       <c r="J15">
-        <v>7007.9</v>
+        <v>1290</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-13.8</v>
+        <v>-2.7</v>
       </c>
       <c r="N15">
-        <v>1697.4</v>
+        <v>671</v>
       </c>
       <c r="O15">
-        <v>12017.8</v>
+        <v>2671</v>
       </c>
       <c r="P15">
-        <v>7013.3</v>
+        <v>1522.3</v>
       </c>
       <c r="Q15">
-        <v>-37.5</v>
+        <v>55</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7824.7</v>
+        <v>1874.3</v>
       </c>
       <c r="U15">
-        <v>175.8</v>
+        <v>174.2</v>
       </c>
       <c r="V15">
-        <v>396.4</v>
+        <v>190.3</v>
       </c>
       <c r="W15">
-        <v>-93.7</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="X15">
-        <v>-223.8</v>
+        <v>-90.9</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>132.5</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>179</v>
+        <v>60.9</v>
       </c>
       <c r="D16">
-        <v>2229.1999999999998</v>
+        <v>683.2</v>
       </c>
       <c r="E16">
-        <v>932.8</v>
+        <v>269.2</v>
       </c>
       <c r="F16">
-        <v>852.3</v>
+        <v>252</v>
       </c>
       <c r="G16">
-        <v>1225.0999999999999</v>
+        <v>419.5</v>
       </c>
       <c r="H16">
-        <v>19876</v>
+        <v>4321.8</v>
       </c>
       <c r="I16">
-        <v>522.29999999999995</v>
+        <v>111.9</v>
       </c>
       <c r="J16">
-        <v>7042.1</v>
+        <v>1296.9000000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1705.5</v>
+        <v>437.2</v>
       </c>
       <c r="O16">
-        <v>12020.5</v>
+        <v>2481.6999999999998</v>
       </c>
       <c r="P16">
-        <v>7052.2</v>
+        <v>1299.3</v>
       </c>
       <c r="Q16">
-        <v>-126.3</v>
+        <v>-108.5</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7855.5</v>
+        <v>1840.1</v>
       </c>
       <c r="U16">
-        <v>49.5</v>
+        <v>65.7</v>
       </c>
       <c r="V16">
-        <v>325.89999999999998</v>
+        <v>171.6</v>
       </c>
       <c r="W16">
-        <v>-92.9</v>
+        <v>-9.1</v>
       </c>
       <c r="X16">
-        <v>-139.69999999999999</v>
+        <v>-308.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>179</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>185.8</v>
+        <v>62.5</v>
       </c>
       <c r="D17">
-        <v>2267.9</v>
+        <v>699.9</v>
       </c>
       <c r="E17">
-        <v>955.2</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="F17">
-        <v>866.8</v>
+        <v>257.89999999999998</v>
       </c>
       <c r="G17">
-        <v>1360.9</v>
+        <v>479.7</v>
       </c>
       <c r="H17">
-        <v>19987</v>
+        <v>4395.1000000000004</v>
       </c>
       <c r="I17">
-        <v>517.29999999999995</v>
+        <v>118.9</v>
       </c>
       <c r="J17">
-        <v>7020</v>
+        <v>1318.5</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1725</v>
+        <v>466</v>
       </c>
       <c r="O17">
-        <v>12055.7</v>
+        <v>2553.8000000000002</v>
       </c>
       <c r="P17">
-        <v>7030.5</v>
+        <v>1320.9</v>
       </c>
       <c r="Q17">
-        <v>63.5</v>
+        <v>50.1</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7931.3</v>
+        <v>1841.3</v>
       </c>
       <c r="U17">
-        <v>113</v>
+        <v>115.8</v>
       </c>
       <c r="V17">
-        <v>379.3</v>
+        <v>175.4</v>
       </c>
       <c r="W17">
-        <v>-92.5</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="X17">
-        <v>-127.4</v>
+        <v>-50.6</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>185.8</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>50.3</v>
+        <v>57.6</v>
       </c>
       <c r="D18">
-        <v>2229.1</v>
+        <v>687.7</v>
       </c>
       <c r="E18">
-        <v>930.4</v>
+        <v>268.7</v>
       </c>
       <c r="F18">
-        <v>688.7</v>
+        <v>250</v>
       </c>
       <c r="G18">
-        <v>1391</v>
+        <v>496.5</v>
       </c>
       <c r="H18">
-        <v>20094</v>
+        <v>4464.6000000000004</v>
       </c>
       <c r="I18">
-        <v>527.29999999999995</v>
+        <v>119.6</v>
       </c>
       <c r="J18">
-        <v>7050.8</v>
+        <v>1351.9</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1826</v>
+        <v>446.6</v>
       </c>
       <c r="O18">
-        <v>12346.2</v>
+        <v>2592.1</v>
       </c>
       <c r="P18">
-        <v>7061.2</v>
+        <v>1354.3</v>
       </c>
       <c r="Q18">
-        <v>-37.799999999999997</v>
+        <v>25.7</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>31000</v>
+        <v>13400</v>
       </c>
       <c r="T18">
-        <v>7747.8</v>
+        <v>1872.5</v>
       </c>
       <c r="U18">
-        <v>75.2</v>
+        <v>141.5</v>
       </c>
       <c r="V18">
-        <v>428.2</v>
+        <v>129</v>
       </c>
       <c r="W18">
-        <v>-99.5</v>
+        <v>-9.5</v>
       </c>
       <c r="X18">
-        <v>-217.2</v>
+        <v>12.7</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>50.3</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>172.4</v>
+        <v>65.5</v>
       </c>
       <c r="D19">
-        <v>2169.4</v>
+        <v>677.2</v>
       </c>
       <c r="E19">
-        <v>930.4</v>
+        <v>246.1</v>
       </c>
       <c r="F19">
-        <v>865.1</v>
+        <v>258.5</v>
       </c>
       <c r="G19">
-        <v>1343.7</v>
+        <v>401.5</v>
       </c>
       <c r="H19">
-        <v>20593.7</v>
+        <v>4381</v>
       </c>
       <c r="I19">
-        <v>491.6</v>
+        <v>110</v>
       </c>
       <c r="J19">
-        <v>7554.5</v>
+        <v>1351</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-660.8</v>
+        <v>-2.4</v>
       </c>
       <c r="N19">
-        <v>1756.4</v>
+        <v>451.1</v>
       </c>
       <c r="O19">
-        <v>12829</v>
+        <v>2635.2</v>
       </c>
       <c r="P19">
-        <v>7564.6</v>
+        <v>1371.4</v>
       </c>
       <c r="Q19">
-        <v>59.1</v>
+        <v>-69.7</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7764.7</v>
+        <v>1745.8</v>
       </c>
       <c r="U19">
-        <v>134.30000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="V19">
-        <v>496.1</v>
+        <v>167.6</v>
       </c>
       <c r="W19">
-        <v>-98.7</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="X19">
-        <v>336.4</v>
+        <v>-226</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>172.4</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>190.3</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D20">
-        <v>2311.4</v>
+        <v>718.6</v>
       </c>
       <c r="E20">
-        <v>969.4</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="F20">
-        <v>891</v>
+        <v>267.3</v>
       </c>
       <c r="G20">
-        <v>1340.9</v>
+        <v>380.7</v>
       </c>
       <c r="H20">
-        <v>20666.599999999999</v>
+        <v>4349.2</v>
       </c>
       <c r="I20">
-        <v>544.1</v>
+        <v>121</v>
       </c>
       <c r="J20">
-        <v>7547.5</v>
+        <v>1357.3</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1788.2</v>
+        <v>476.4</v>
       </c>
       <c r="O20">
-        <v>12901.9</v>
+        <v>2677.2</v>
       </c>
       <c r="P20">
-        <v>7552.6</v>
+        <v>1362.6</v>
       </c>
       <c r="Q20">
-        <v>-34.4</v>
+        <v>-41.5</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7764.7</v>
+        <v>1672</v>
       </c>
       <c r="U20">
-        <v>99.9</v>
+        <v>30.3</v>
       </c>
       <c r="V20">
-        <v>405.1</v>
+        <v>167.5</v>
       </c>
       <c r="W20">
-        <v>-98.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="X20">
-        <v>-214.7</v>
+        <v>-161.80000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>190.3</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>215</v>
+        <v>63.8</v>
       </c>
       <c r="D21">
-        <v>2344</v>
+        <v>730</v>
       </c>
       <c r="E21">
-        <v>988.8</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="F21">
-        <v>903.8</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="G21">
-        <v>1444.3</v>
+        <v>409.6</v>
       </c>
       <c r="H21">
-        <v>20791.8</v>
+        <v>4365.3999999999996</v>
       </c>
       <c r="I21">
-        <v>560.79999999999995</v>
+        <v>123.1</v>
       </c>
       <c r="J21">
-        <v>7555.6</v>
+        <v>1363.4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1900.5</v>
+        <v>510.3</v>
       </c>
       <c r="O21">
-        <v>12989.6</v>
+        <v>2737.8</v>
       </c>
       <c r="P21">
-        <v>7561</v>
+        <v>1368.5</v>
       </c>
       <c r="Q21">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7802.2</v>
+        <v>1627.6</v>
       </c>
       <c r="U21">
-        <v>102.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="V21">
-        <v>423.3</v>
+        <v>158.6</v>
       </c>
       <c r="W21">
-        <v>-97.8</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="X21">
-        <v>-175.7</v>
+        <v>-101.7</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>215</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>172.2</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>2290.1999999999998</v>
+        <v>738.1</v>
       </c>
       <c r="E22">
-        <v>962.9</v>
+        <v>280</v>
       </c>
       <c r="F22">
-        <v>886.5</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="G22">
-        <v>1230.3</v>
+        <v>482.3</v>
       </c>
       <c r="H22">
-        <v>20535.900000000001</v>
+        <v>4550.5</v>
       </c>
       <c r="I22">
-        <v>577.4</v>
+        <v>176.1</v>
       </c>
       <c r="J22">
-        <v>7527.4</v>
+        <v>1472.1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1834.8</v>
+        <v>667</v>
       </c>
       <c r="O22">
-        <v>12759.3</v>
+        <v>2944.7</v>
       </c>
       <c r="P22">
-        <v>7532.9</v>
+        <v>1475.1</v>
       </c>
       <c r="Q22">
-        <v>-70.099999999999994</v>
+        <v>98</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="T22">
-        <v>7776.6</v>
+        <v>1605.8</v>
       </c>
       <c r="U22">
-        <v>32.4</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="V22">
-        <v>355.2</v>
+        <v>273.8</v>
       </c>
       <c r="W22">
-        <v>-104.3</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="X22">
-        <v>-185.7</v>
+        <v>9.5</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>172.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>156.69999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D23">
-        <v>2248.6</v>
+        <v>737.5</v>
       </c>
       <c r="E23">
-        <v>935</v>
+        <v>278.8</v>
       </c>
       <c r="F23">
-        <v>867.2</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="G23">
-        <v>1183.3</v>
+        <v>362.8</v>
       </c>
       <c r="H23">
-        <v>20539.2</v>
+        <v>4471.5</v>
       </c>
       <c r="I23">
-        <v>542.4</v>
+        <v>123.3</v>
       </c>
       <c r="J23">
-        <v>7554.9</v>
+        <v>1497</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-798.6</v>
+        <v>-41.3</v>
       </c>
       <c r="N23">
-        <v>1810.3</v>
+        <v>571.29999999999995</v>
       </c>
       <c r="O23">
-        <v>12773.3</v>
+        <v>2895.2</v>
       </c>
       <c r="P23">
-        <v>7560.4</v>
+        <v>1555</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>-116.9</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7765.9</v>
+        <v>1576.3</v>
       </c>
       <c r="U23">
-        <v>33.4</v>
+        <v>14.9</v>
       </c>
       <c r="V23">
-        <v>431.5</v>
+        <v>4.2</v>
       </c>
       <c r="W23">
-        <v>-103.7</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="X23">
-        <v>-160.30000000000001</v>
+        <v>-23.1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>156.69999999999999</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>180.7</v>
+        <v>70.8</v>
       </c>
       <c r="D24">
-        <v>2350.6999999999998</v>
+        <v>779.8</v>
       </c>
       <c r="E24">
-        <v>990.6</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="F24">
-        <v>910</v>
+        <v>287.3</v>
       </c>
       <c r="G24">
-        <v>1259.4000000000001</v>
+        <v>398</v>
       </c>
       <c r="H24">
-        <v>20645.400000000001</v>
+        <v>4489.7</v>
       </c>
       <c r="I24">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="J24">
-        <v>7627.9</v>
+        <v>1659.1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1847.7</v>
+        <v>526.9</v>
       </c>
       <c r="O24">
-        <v>12887.4</v>
+        <v>3026.7</v>
       </c>
       <c r="P24">
-        <v>7633.5</v>
+        <v>1662</v>
       </c>
       <c r="Q24">
-        <v>8.6</v>
+        <v>15.8</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7758</v>
+        <v>1463</v>
       </c>
       <c r="U24">
-        <v>42</v>
+        <v>30.7</v>
       </c>
       <c r="V24">
-        <v>412.8</v>
+        <v>142.6</v>
       </c>
       <c r="W24">
-        <v>-103.4</v>
+        <v>-19.3</v>
       </c>
       <c r="X24">
-        <v>-157.19999999999999</v>
+        <v>-78.2</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>180.8</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>85.7</v>
+        <v>77.3</v>
       </c>
       <c r="D25">
-        <v>2409.3000000000002</v>
+        <v>787.1</v>
       </c>
       <c r="E25">
-        <v>1016.7</v>
+        <v>311.5</v>
       </c>
       <c r="F25">
-        <v>932.6</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="G25">
-        <v>1301.5999999999999</v>
+        <v>427.7</v>
       </c>
       <c r="H25">
-        <v>20661.7</v>
+        <v>4488.8999999999996</v>
       </c>
       <c r="I25">
-        <v>542.79999999999995</v>
+        <v>125.8</v>
       </c>
       <c r="J25">
-        <v>7759.9</v>
+        <v>1664.8</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1817.9</v>
+        <v>546.5</v>
       </c>
       <c r="O25">
-        <v>13020.2</v>
+        <v>3054.6</v>
       </c>
       <c r="P25">
-        <v>7765.6</v>
+        <v>1667.6</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7641.5</v>
+        <v>1434.3</v>
       </c>
       <c r="U25">
-        <v>55</v>
+        <v>49.3</v>
       </c>
       <c r="V25">
-        <v>515.29999999999995</v>
+        <v>176.2</v>
       </c>
       <c r="W25">
-        <v>-102.8</v>
+        <v>-18.7</v>
       </c>
       <c r="X25">
-        <v>-267.10000000000002</v>
+        <v>-105.6</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>85.6</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>189.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D26">
-        <v>2379.1999999999998</v>
+        <v>766.2</v>
       </c>
       <c r="E26">
-        <v>994.8</v>
+        <v>293.8</v>
       </c>
       <c r="F26">
-        <v>913.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="G26">
-        <v>1284.5</v>
+        <v>393.4</v>
       </c>
       <c r="H26">
-        <v>20629.599999999999</v>
+        <v>4429.3999999999996</v>
       </c>
       <c r="I26">
-        <v>553.79999999999995</v>
+        <v>161.5</v>
       </c>
       <c r="J26">
-        <v>7653.1</v>
+        <v>1544.6</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1812</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="O26">
-        <v>12935.9</v>
+        <v>3007.3</v>
       </c>
       <c r="P26">
-        <v>7658.9</v>
+        <v>1547.2</v>
       </c>
       <c r="Q26">
-        <v>12.8</v>
+        <v>-20.2</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="T26">
-        <v>7693.7</v>
+        <v>1422.1</v>
       </c>
       <c r="U26">
-        <v>67.8</v>
+        <v>29.1</v>
       </c>
       <c r="V26">
-        <v>488.2</v>
+        <v>188.2</v>
       </c>
       <c r="W26">
-        <v>-109</v>
+        <v>-21.1</v>
       </c>
       <c r="X26">
-        <v>-266.60000000000002</v>
+        <v>-202.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>189.5</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>187.8</v>
+        <v>53.9</v>
       </c>
       <c r="D27">
-        <v>2392.8000000000002</v>
+        <v>765.6</v>
       </c>
       <c r="E27">
-        <v>1017.4</v>
+        <v>297.7</v>
       </c>
       <c r="F27">
-        <v>908.7</v>
+        <v>277.2</v>
       </c>
       <c r="G27">
-        <v>1234.4000000000001</v>
+        <v>408.7</v>
       </c>
       <c r="H27">
-        <v>20595.8</v>
+        <v>4410.6000000000004</v>
       </c>
       <c r="I27">
-        <v>520.79999999999995</v>
+        <v>108.8</v>
       </c>
       <c r="J27">
-        <v>7663.9</v>
+        <v>1549.7</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1076.2</v>
+        <v>-51.4</v>
       </c>
       <c r="N27">
-        <v>1777.2</v>
+        <v>534.9</v>
       </c>
       <c r="O27">
-        <v>12910.1</v>
+        <v>3010</v>
       </c>
       <c r="P27">
-        <v>7670.1</v>
+        <v>1552.2</v>
       </c>
       <c r="Q27">
-        <v>-33.9</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7685.7</v>
+        <v>1400.6</v>
       </c>
       <c r="U27">
-        <v>33.200000000000003</v>
+        <v>20.3</v>
       </c>
       <c r="V27">
-        <v>444.4</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="W27">
-        <v>-108.6</v>
+        <v>-20.8</v>
       </c>
       <c r="X27">
-        <v>-187</v>
+        <v>-76.5</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>187.8</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>202.9</v>
+        <v>87.2</v>
       </c>
       <c r="D28">
-        <v>2526.6999999999998</v>
+        <v>808.4</v>
       </c>
       <c r="E28">
-        <v>1074.4000000000001</v>
+        <v>312.3</v>
       </c>
       <c r="F28">
-        <v>969.3</v>
+        <v>310.5</v>
       </c>
       <c r="G28">
-        <v>1292.8</v>
+        <v>423.6</v>
       </c>
       <c r="H28">
-        <v>20761.099999999999</v>
+        <v>4416.2</v>
       </c>
       <c r="I28">
-        <v>596.5</v>
+        <v>122.8</v>
       </c>
       <c r="J28">
-        <v>7075.7</v>
+        <v>1496</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2543</v>
+        <v>572.20000000000005</v>
       </c>
       <c r="O28">
-        <v>13096</v>
+        <v>3027.8</v>
       </c>
       <c r="P28">
-        <v>7781.1</v>
+        <v>1498.3</v>
       </c>
       <c r="Q28">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7665.1</v>
+        <v>1388.4</v>
       </c>
       <c r="U28">
-        <v>36</v>
+        <v>25.9</v>
       </c>
       <c r="V28">
-        <v>434.8</v>
+        <v>204.7</v>
       </c>
       <c r="W28">
-        <v>-108.4</v>
+        <v>-20.8</v>
       </c>
       <c r="X28">
-        <v>-130.5</v>
+        <v>-154.80000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>202.9</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>223.3</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>2562</v>
+        <v>806.2</v>
       </c>
       <c r="E29">
-        <v>1126.9000000000001</v>
+        <v>320.10000000000002</v>
       </c>
       <c r="F29">
-        <v>981.9</v>
+        <v>285.8</v>
       </c>
       <c r="G29">
-        <v>1396.7</v>
+        <v>432.7</v>
       </c>
       <c r="H29">
-        <v>20948.599999999999</v>
+        <v>4498</v>
       </c>
       <c r="I29">
-        <v>599.29999999999995</v>
+        <v>124.8</v>
       </c>
       <c r="J29">
-        <v>7152</v>
+        <v>1654</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2591.5</v>
+        <v>556.70000000000005</v>
       </c>
       <c r="O29">
-        <v>13274.4</v>
+        <v>3190.8</v>
       </c>
       <c r="P29">
-        <v>7857.7</v>
+        <v>1656.2</v>
       </c>
       <c r="Q29">
-        <v>30.9</v>
+        <v>-3.3</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7674.2</v>
+        <v>1307.2</v>
       </c>
       <c r="U29">
-        <v>63.9</v>
+        <v>22.6</v>
       </c>
       <c r="V29">
-        <v>502.9</v>
+        <v>126.7</v>
       </c>
       <c r="W29">
-        <v>-107.8</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="X29">
-        <v>-150.9</v>
+        <v>11.3</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>223.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>664.4</v>
+        <v>82.1</v>
       </c>
       <c r="D30">
-        <v>2560</v>
+        <v>796</v>
       </c>
       <c r="E30">
-        <v>1105.9000000000001</v>
+        <v>298.2</v>
       </c>
       <c r="F30">
-        <v>967</v>
+        <v>298.8</v>
       </c>
       <c r="G30">
-        <v>1436.8</v>
+        <v>413.8</v>
       </c>
       <c r="H30">
-        <v>21147</v>
+        <v>4467.8</v>
       </c>
       <c r="I30">
-        <v>598.1</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="J30">
-        <v>7372.3</v>
+        <v>1565.5</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2634.8</v>
+        <v>628.70000000000005</v>
       </c>
       <c r="O30">
-        <v>13185.9</v>
+        <v>3164</v>
       </c>
       <c r="P30">
-        <v>8187.4</v>
+        <v>1567.8</v>
       </c>
       <c r="Q30">
-        <v>64</v>
+        <v>-0.8</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="T30">
-        <v>7961.1</v>
+        <v>1303.8</v>
       </c>
       <c r="U30">
-        <v>83.3</v>
+        <v>21.8</v>
       </c>
       <c r="V30">
-        <v>528.6</v>
+        <v>190.7</v>
       </c>
       <c r="W30">
-        <v>-115.7</v>
+        <v>-31.9</v>
       </c>
       <c r="X30">
-        <v>-46</v>
+        <v>-188.3</v>
       </c>
       <c r="Y30">
-        <v>108.4</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>664.4</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>237.7</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D31">
-        <v>2427.5</v>
+        <v>779.2</v>
       </c>
       <c r="E31">
-        <v>1052.2</v>
+        <v>306.7</v>
       </c>
       <c r="F31">
-        <v>957.7</v>
+        <v>302.7</v>
       </c>
       <c r="G31">
-        <v>1354</v>
+        <v>456</v>
       </c>
       <c r="H31">
-        <v>21108.7</v>
+        <v>4534.3999999999996</v>
       </c>
       <c r="I31">
-        <v>572.4</v>
+        <v>120.9</v>
       </c>
       <c r="J31">
-        <v>7499.7</v>
+        <v>1693</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1073.4000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="N31">
-        <v>2560.1999999999998</v>
+        <v>572.1</v>
       </c>
       <c r="O31">
-        <v>13194.4</v>
+        <v>3270.4</v>
       </c>
       <c r="P31">
-        <v>8206.7000000000007</v>
+        <v>1695.3</v>
       </c>
       <c r="Q31">
-        <v>-44.9</v>
+        <v>28.6</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7914.3</v>
+        <v>1264</v>
       </c>
       <c r="U31">
-        <v>62.6</v>
+        <v>50.4</v>
       </c>
       <c r="V31">
-        <v>581.4</v>
+        <v>148</v>
       </c>
       <c r="W31">
-        <v>-114.4</v>
+        <v>-31.6</v>
       </c>
       <c r="X31">
-        <v>-349.6</v>
+        <v>-2.1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>237.7</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>234.9</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D32">
-        <v>2517.8000000000002</v>
+        <v>827.5</v>
       </c>
       <c r="E32">
-        <v>1112.2</v>
+        <v>320.10000000000002</v>
       </c>
       <c r="F32">
-        <v>940.6</v>
+        <v>250</v>
       </c>
       <c r="G32">
-        <v>1369.4</v>
+        <v>463.1</v>
       </c>
       <c r="H32">
-        <v>21203.7</v>
+        <v>4547.5</v>
       </c>
       <c r="I32">
-        <v>629.79999999999995</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="J32">
-        <v>8217.2999999999993</v>
+        <v>1515.4</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1989.5</v>
+        <v>679</v>
       </c>
       <c r="O32">
-        <v>13354.9</v>
+        <v>3285.7</v>
       </c>
       <c r="P32">
-        <v>8259.2000000000007</v>
+        <v>1617</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7848.8</v>
+        <v>1261.8</v>
       </c>
       <c r="U32">
-        <v>61.3</v>
+        <v>13.1</v>
       </c>
       <c r="V32">
-        <v>609.6</v>
+        <v>163.5</v>
       </c>
       <c r="W32">
-        <v>-113.3</v>
+        <v>-31.1</v>
       </c>
       <c r="X32">
-        <v>-281.8</v>
+        <v>-130.80000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>234.9</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>263.39999999999998</v>
+        <v>88.7</v>
       </c>
       <c r="D33">
-        <v>2565.6999999999998</v>
+        <v>834</v>
       </c>
       <c r="E33">
-        <v>1156</v>
+        <v>326.3</v>
       </c>
       <c r="F33">
-        <v>988.3</v>
+        <v>334.5</v>
       </c>
       <c r="G33">
-        <v>1492.1</v>
+        <v>474.1</v>
       </c>
       <c r="H33">
-        <v>21402.1</v>
+        <v>4606.5</v>
       </c>
       <c r="I33">
-        <v>661.3</v>
+        <v>144.6</v>
       </c>
       <c r="J33">
-        <v>7560.2</v>
+        <v>1497.2</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2675.3</v>
+        <v>697.5</v>
       </c>
       <c r="O33">
-        <v>13478.3</v>
+        <v>3294.7</v>
       </c>
       <c r="P33">
-        <v>8251</v>
+        <v>1598.8</v>
       </c>
       <c r="Q33">
-        <v>4.2</v>
+        <v>26.8</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7923.8</v>
+        <v>1311.8</v>
       </c>
       <c r="U33">
-        <v>81.900000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="V33">
-        <v>555.9</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="W33">
-        <v>-112.3</v>
+        <v>-31</v>
       </c>
       <c r="X33">
-        <v>-226</v>
+        <v>-44.9</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>263.39999999999998</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>300.89999999999998</v>
+        <v>-131.69999999999999</v>
       </c>
       <c r="D34">
-        <v>2530</v>
+        <v>1244.4000000000001</v>
       </c>
       <c r="E34">
-        <v>1102.7</v>
+        <v>945.5</v>
       </c>
       <c r="F34">
-        <v>964.4</v>
+        <v>381.2</v>
       </c>
       <c r="G34">
-        <v>1564.4</v>
+        <v>1325.7</v>
       </c>
       <c r="H34">
-        <v>21617</v>
+        <v>19921.400000000001</v>
       </c>
       <c r="I34">
-        <v>761.5</v>
+        <v>564</v>
       </c>
       <c r="J34">
-        <v>7537.3</v>
+        <v>7198.5</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2718.6</v>
+        <v>2565.8000000000002</v>
       </c>
       <c r="O34">
-        <v>13687.5</v>
+        <v>12638.9</v>
       </c>
       <c r="P34">
-        <v>8337.5</v>
+        <v>7702.5</v>
       </c>
       <c r="Q34">
-        <v>-3.6</v>
+        <v>28.8</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="T34">
-        <v>7929.5</v>
+        <v>7282.5</v>
       </c>
       <c r="U34">
-        <v>70.5</v>
+        <v>68.7</v>
       </c>
       <c r="V34">
-        <v>495.9</v>
+        <v>38</v>
       </c>
       <c r="W34">
-        <v>-121.8</v>
+        <v>-34.6</v>
       </c>
       <c r="X34">
-        <v>-202.1</v>
+        <v>647.20000000000005</v>
       </c>
       <c r="Y34">
-        <v>109.5</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>300.89999999999998</v>
+        <v>-131.69999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>234.2</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>2470.6</v>
+        <v>2060.5</v>
       </c>
       <c r="E35">
-        <v>1073.7</v>
+        <v>877.6</v>
       </c>
       <c r="F35">
-        <v>964.5</v>
+        <v>851.8</v>
       </c>
       <c r="G35">
-        <v>1444.6</v>
+        <v>1363.9</v>
       </c>
       <c r="H35">
-        <v>21782</v>
+        <v>19862.599999999999</v>
       </c>
       <c r="I35">
-        <v>629.6</v>
+        <v>552.5</v>
       </c>
       <c r="J35">
-        <v>6711.2</v>
+        <v>7118.7</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1052.5999999999999</v>
+        <v>-381.1</v>
       </c>
       <c r="N35">
-        <v>3467.9</v>
+        <v>2476.4</v>
       </c>
       <c r="O35">
-        <v>13859.4</v>
+        <v>12533.9</v>
       </c>
       <c r="P35">
-        <v>8657.6</v>
+        <v>7576.6</v>
       </c>
       <c r="Q35">
-        <v>3.2</v>
+        <v>124.8</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7922.6</v>
+        <v>7328.7</v>
       </c>
       <c r="U35">
-        <v>68</v>
+        <v>193.5</v>
       </c>
       <c r="V35">
-        <v>553.70000000000005</v>
+        <v>512.4</v>
       </c>
       <c r="W35">
-        <v>-121</v>
+        <v>-72</v>
       </c>
       <c r="X35">
-        <v>-191.4</v>
+        <v>-218.5</v>
       </c>
       <c r="Y35">
-        <v>317.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>234.2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>251.5</v>
+        <v>225.9</v>
       </c>
       <c r="D36">
-        <v>2605.3000000000002</v>
+        <v>2066.1</v>
       </c>
       <c r="E36">
-        <v>1147</v>
+        <v>913.5</v>
       </c>
       <c r="F36">
-        <v>988.3</v>
+        <v>839.2</v>
       </c>
       <c r="G36">
-        <v>1474.1</v>
+        <v>1252.9000000000001</v>
       </c>
       <c r="H36">
-        <v>21996.799999999999</v>
+        <v>19446.400000000001</v>
       </c>
       <c r="I36">
-        <v>719.6</v>
+        <v>462.9</v>
       </c>
       <c r="J36">
-        <v>6782.8</v>
+        <v>6768.5</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3571</v>
+        <v>2186.3000000000002</v>
       </c>
       <c r="O36">
-        <v>14041.6</v>
+        <v>11952.8</v>
       </c>
       <c r="P36">
-        <v>8730</v>
+        <v>7095.8</v>
       </c>
       <c r="Q36">
-        <v>7.2</v>
+        <v>-125.9</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>7955.2</v>
+        <v>7493.6</v>
       </c>
       <c r="U36">
-        <v>72.5</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="V36">
-        <v>581.9</v>
+        <v>168.3</v>
       </c>
       <c r="W36">
-        <v>-120.7</v>
+        <v>-72</v>
       </c>
       <c r="X36">
-        <v>-171.2</v>
+        <v>-571.70000000000005</v>
       </c>
       <c r="Y36">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>251.5</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>298.3</v>
+        <v>120.5</v>
       </c>
       <c r="D37">
-        <v>2646.9</v>
+        <v>2073.5</v>
       </c>
       <c r="E37">
-        <v>1162.9000000000001</v>
+        <v>928.2</v>
       </c>
       <c r="F37">
-        <v>1015.5</v>
+        <v>857.2</v>
       </c>
       <c r="G37">
-        <v>1473.9</v>
+        <v>1404.3</v>
       </c>
       <c r="H37">
-        <v>22329.1</v>
+        <v>19530.099999999999</v>
       </c>
       <c r="I37">
-        <v>697.2</v>
+        <v>458.8</v>
       </c>
       <c r="J37">
-        <v>7626.2</v>
+        <v>6813.3</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2997.4</v>
+        <v>2098</v>
       </c>
       <c r="O37">
-        <v>14350.6</v>
+        <v>11975.6</v>
       </c>
       <c r="P37">
-        <v>8936.1</v>
+        <v>7055.8</v>
       </c>
       <c r="Q37">
-        <v>-15.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7978.5</v>
+        <v>7554.5</v>
       </c>
       <c r="U37">
-        <v>55.6</v>
+        <v>107.3</v>
       </c>
       <c r="V37">
-        <v>651.29999999999995</v>
+        <v>324.8</v>
       </c>
       <c r="W37">
-        <v>-120.2</v>
+        <v>-72.099999999999994</v>
       </c>
       <c r="X37">
-        <v>-112.4</v>
+        <v>-163.19999999999999</v>
       </c>
       <c r="Y37">
-        <v>331.4</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>298.3</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>289.3</v>
+        <v>35.6</v>
       </c>
       <c r="D38">
-        <v>2576.6999999999998</v>
+        <v>1999</v>
       </c>
       <c r="E38">
-        <v>1125.9000000000001</v>
+        <v>865.1</v>
       </c>
       <c r="F38">
-        <v>1112.7</v>
+        <v>785.9</v>
       </c>
       <c r="G38">
-        <v>1606</v>
+        <v>1264.9000000000001</v>
       </c>
       <c r="H38">
-        <v>22683.8</v>
+        <v>19540.3</v>
       </c>
       <c r="I38">
-        <v>777.9</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="J38">
-        <v>7662.3</v>
+        <v>6419.6</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3064.6</v>
+        <v>2548.6999999999998</v>
       </c>
       <c r="O38">
-        <v>14562.9</v>
+        <v>11973.2</v>
       </c>
       <c r="P38">
-        <v>8990.4</v>
+        <v>6962.6</v>
       </c>
       <c r="Q38">
-        <v>48.8</v>
+        <v>-59.3</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="T38">
-        <v>8120.9</v>
+        <v>7567.1</v>
       </c>
       <c r="U38">
-        <v>47.1</v>
+        <v>48</v>
       </c>
       <c r="V38">
-        <v>565.20000000000005</v>
+        <v>384.1</v>
       </c>
       <c r="W38">
-        <v>-129.30000000000001</v>
+        <v>-72.2</v>
       </c>
       <c r="X38">
-        <v>-114</v>
+        <v>-220.3</v>
       </c>
       <c r="Y38">
-        <v>331.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>289.3</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>246.3</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>2553.9</v>
+        <v>1957.7</v>
       </c>
       <c r="E39">
-        <v>1095.3</v>
+        <v>850.7</v>
       </c>
       <c r="F39">
-        <v>995.8</v>
+        <v>820.9</v>
       </c>
       <c r="G39">
-        <v>1753.9</v>
+        <v>1266</v>
       </c>
       <c r="H39">
-        <v>22908.9</v>
+        <v>19465.3</v>
       </c>
       <c r="I39">
-        <v>660.6</v>
+        <v>412.2</v>
       </c>
       <c r="J39">
-        <v>8958.2999999999993</v>
+        <v>6638.3</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2688.7</v>
+        <v>-2198.4</v>
       </c>
       <c r="N39">
-        <v>1980.6</v>
+        <v>2254.9</v>
       </c>
       <c r="O39">
-        <v>14788.7</v>
+        <v>11896.6</v>
       </c>
       <c r="P39">
-        <v>9358.2999999999993</v>
+        <v>7114</v>
       </c>
       <c r="Q39">
-        <v>166</v>
+        <v>33.4</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8120.2</v>
+        <v>7568.7</v>
       </c>
       <c r="U39">
-        <v>281.60000000000002</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="V39">
-        <v>569.5</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="W39">
-        <v>-129.19999999999999</v>
+        <v>-72.400000000000006</v>
       </c>
       <c r="X39">
-        <v>31.9</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="Y39">
-        <v>340.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>246.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>225.5</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="D40">
-        <v>2454.4</v>
+        <v>2066.4</v>
       </c>
       <c r="E40">
-        <v>1066.5</v>
+        <v>898.4</v>
       </c>
       <c r="F40">
-        <v>986.3</v>
+        <v>848.1</v>
       </c>
       <c r="G40">
-        <v>1568.8</v>
+        <v>1288.7</v>
       </c>
       <c r="H40">
-        <v>22826.3</v>
+        <v>19571.400000000001</v>
       </c>
       <c r="I40">
-        <v>657.4</v>
+        <v>470.5</v>
       </c>
       <c r="J40">
-        <v>8600.5</v>
+        <v>6425</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2066.1</v>
+        <v>2466</v>
       </c>
       <c r="O40">
-        <v>14595.4</v>
+        <v>11885.5</v>
       </c>
       <c r="P40">
-        <v>9044.5</v>
+        <v>7117.5</v>
       </c>
       <c r="Q40">
-        <v>7.3</v>
+        <v>-25.4</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8230.9</v>
+        <v>7685.9</v>
       </c>
       <c r="U40">
-        <v>269.7</v>
+        <v>56</v>
       </c>
       <c r="V40">
-        <v>764</v>
+        <v>295.7</v>
       </c>
       <c r="W40">
-        <v>-128.69999999999999</v>
+        <v>-72.5</v>
       </c>
       <c r="X40">
-        <v>-470.3</v>
+        <v>-55.7</v>
       </c>
       <c r="Y40">
-        <v>349.6</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>225.5</v>
+        <v>159.69999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>260</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="D41">
-        <v>2572.1</v>
+        <v>2061.6999999999998</v>
       </c>
       <c r="E41">
-        <v>1097.2</v>
+        <v>895.7</v>
       </c>
       <c r="F41">
-        <v>1036.7</v>
+        <v>836.8</v>
       </c>
       <c r="G41">
-        <v>1774.3</v>
+        <v>1330.2</v>
       </c>
       <c r="H41">
-        <v>23110.1</v>
+        <v>19458</v>
       </c>
       <c r="I41">
-        <v>646.29999999999995</v>
+        <v>473</v>
       </c>
       <c r="J41">
-        <v>8494.6</v>
+        <v>5836</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2190.8000000000002</v>
+        <v>2835.3</v>
       </c>
       <c r="O41">
-        <v>14736</v>
+        <v>11672</v>
       </c>
       <c r="P41">
-        <v>9142</v>
+        <v>6927.9</v>
       </c>
       <c r="Q41">
-        <v>138.5</v>
+        <v>64.5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8374.1</v>
+        <v>7786</v>
       </c>
       <c r="U41">
-        <v>406.4</v>
+        <v>120.5</v>
       </c>
       <c r="V41">
-        <v>575.5</v>
+        <v>368.9</v>
       </c>
       <c r="W41">
-        <v>-129.19999999999999</v>
+        <v>-72.8</v>
       </c>
       <c r="X41">
-        <v>-125.9</v>
+        <v>-261.5</v>
       </c>
       <c r="Y41">
-        <v>427.3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>260</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>147.6</v>
+      </c>
+      <c r="D42">
+        <v>2020.8</v>
+      </c>
+      <c r="E42">
+        <v>828.9</v>
+      </c>
+      <c r="F42">
+        <v>836</v>
+      </c>
+      <c r="G42">
+        <v>1246.0999999999999</v>
+      </c>
+      <c r="H42">
+        <v>19461.900000000001</v>
+      </c>
+      <c r="I42">
+        <v>606.5</v>
+      </c>
+      <c r="J42">
+        <v>5865.1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2676.5</v>
+      </c>
+      <c r="O42">
+        <v>11613</v>
+      </c>
+      <c r="P42">
+        <v>6743.6</v>
+      </c>
+      <c r="Q42">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>30000</v>
+      </c>
+      <c r="T42">
+        <v>7848.9</v>
+      </c>
+      <c r="U42">
+        <v>88.3</v>
+      </c>
+      <c r="V42">
+        <v>470</v>
+      </c>
+      <c r="W42">
+        <v>-76.900000000000006</v>
+      </c>
+      <c r="X42">
+        <v>-304.10000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="D43">
+        <v>1964.9</v>
+      </c>
+      <c r="E43">
+        <v>839.5</v>
+      </c>
+      <c r="F43">
+        <v>805.2</v>
+      </c>
+      <c r="G43">
+        <v>1210.3</v>
+      </c>
+      <c r="H43">
+        <v>19396.7</v>
+      </c>
+      <c r="I43">
+        <v>431.6</v>
+      </c>
+      <c r="J43">
+        <v>6192.3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-431.1</v>
+      </c>
+      <c r="N43">
+        <v>2370.8000000000002</v>
+      </c>
+      <c r="O43">
+        <v>11599.1</v>
+      </c>
+      <c r="P43">
+        <v>6821.1</v>
+      </c>
+      <c r="Q43">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7797.6</v>
+      </c>
+      <c r="U43">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="V43">
+        <v>433.7</v>
+      </c>
+      <c r="W43">
+        <v>-76.7</v>
+      </c>
+      <c r="X43">
+        <v>-159.80000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>46.5</v>
+      </c>
+      <c r="D44">
+        <v>2086.6</v>
+      </c>
+      <c r="E44">
+        <v>872.3</v>
+      </c>
+      <c r="F44">
+        <v>848.8</v>
+      </c>
+      <c r="G44">
+        <v>1479.6</v>
+      </c>
+      <c r="H44">
+        <v>19682</v>
+      </c>
+      <c r="I44">
+        <v>476.8</v>
+      </c>
+      <c r="J44">
+        <v>6907.7</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2204</v>
+      </c>
+      <c r="O44">
+        <v>12015.3</v>
+      </c>
+      <c r="P44">
+        <v>7305.5</v>
+      </c>
+      <c r="Q44">
+        <v>252.6</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7666.7</v>
+      </c>
+      <c r="U44">
+        <v>320.5</v>
+      </c>
+      <c r="V44">
+        <v>361.9</v>
+      </c>
+      <c r="W44">
+        <v>-75.8</v>
+      </c>
+      <c r="X44">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>193.5</v>
+      </c>
+      <c r="D45">
+        <v>2116.1999999999998</v>
+      </c>
+      <c r="E45">
+        <v>901.3</v>
+      </c>
+      <c r="F45">
+        <v>856.2</v>
+      </c>
+      <c r="G45">
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="H45">
+        <v>19456.2</v>
+      </c>
+      <c r="I45">
+        <v>515.20000000000005</v>
+      </c>
+      <c r="J45">
+        <v>7021.6</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1857.5</v>
+      </c>
+      <c r="O45">
+        <v>11841.7</v>
+      </c>
+      <c r="P45">
+        <v>7031.3</v>
+      </c>
+      <c r="Q45">
+        <v>-247.9</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7614.5</v>
+      </c>
+      <c r="U45">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="V45">
+        <v>491.2</v>
+      </c>
+      <c r="W45">
+        <v>-75.3</v>
+      </c>
+      <c r="X45">
+        <v>-522.1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>191</v>
+      </c>
+      <c r="D46">
+        <v>2025.2</v>
+      </c>
+      <c r="E46">
+        <v>825.8</v>
+      </c>
+      <c r="F46">
+        <v>817.6</v>
+      </c>
+      <c r="G46">
+        <v>1265.7</v>
+      </c>
+      <c r="H46">
+        <v>19551.5</v>
+      </c>
+      <c r="I46">
+        <v>563.6</v>
+      </c>
+      <c r="J46">
+        <v>6887</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1897.5</v>
+      </c>
+      <c r="O46">
+        <v>11868.1</v>
+      </c>
+      <c r="P46">
+        <v>6921.8</v>
+      </c>
+      <c r="Q46">
+        <v>-6.3</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>30000</v>
+      </c>
+      <c r="T46">
+        <v>7683.4</v>
+      </c>
+      <c r="U46">
+        <v>66.3</v>
+      </c>
+      <c r="V46">
+        <v>479.9</v>
+      </c>
+      <c r="W46">
+        <v>-81.599999999999994</v>
+      </c>
+      <c r="X46">
+        <v>-225.2</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>142.9</v>
+      </c>
+      <c r="D47">
+        <v>1982.4</v>
+      </c>
+      <c r="E47">
+        <v>808.4</v>
+      </c>
+      <c r="F47">
+        <v>779.2</v>
+      </c>
+      <c r="G47">
+        <v>1179.2</v>
+      </c>
+      <c r="H47">
+        <v>19455.900000000001</v>
+      </c>
+      <c r="I47">
+        <v>451</v>
+      </c>
+      <c r="J47">
+        <v>6870.3</v>
+      </c>
+      <c r="K47">
+        <v>15.9</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-586.70000000000005</v>
+      </c>
+      <c r="N47">
+        <v>1715.8</v>
+      </c>
+      <c r="O47">
+        <v>11702.2</v>
+      </c>
+      <c r="P47">
+        <v>6904.5</v>
+      </c>
+      <c r="Q47">
+        <v>7.2</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7753.7</v>
+      </c>
+      <c r="U47">
+        <v>73.5</v>
+      </c>
+      <c r="V47">
+        <v>334.2</v>
+      </c>
+      <c r="W47">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="X47">
+        <v>-84.7</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D48">
+        <v>2060.6</v>
+      </c>
+      <c r="E48">
+        <v>845.3</v>
+      </c>
+      <c r="F48">
+        <v>822.1</v>
+      </c>
+      <c r="G48">
+        <v>1234.3</v>
+      </c>
+      <c r="H48">
+        <v>19590.3</v>
+      </c>
+      <c r="I48">
+        <v>529.5</v>
+      </c>
+      <c r="J48">
+        <v>7079.4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1752.3</v>
+      </c>
+      <c r="O48">
+        <v>11907.6</v>
+      </c>
+      <c r="P48">
+        <v>7113.4</v>
+      </c>
+      <c r="Q48">
+        <v>-4.2</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7682.7</v>
+      </c>
+      <c r="U48">
+        <v>69.3</v>
+      </c>
+      <c r="V48">
+        <v>360.8</v>
+      </c>
+      <c r="W48">
+        <v>-81.599999999999994</v>
+      </c>
+      <c r="X48">
+        <v>-154.4</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="D49">
+        <v>2046.9</v>
+      </c>
+      <c r="E49">
+        <v>854.2</v>
+      </c>
+      <c r="F49">
+        <v>766.4</v>
+      </c>
+      <c r="G49">
+        <v>1270</v>
+      </c>
+      <c r="H49">
+        <v>19634.3</v>
+      </c>
+      <c r="I49">
+        <v>490.6</v>
+      </c>
+      <c r="J49">
+        <v>7060</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1699.2</v>
+      </c>
+      <c r="O49">
+        <v>11892.7</v>
+      </c>
+      <c r="P49">
+        <v>7104.4</v>
+      </c>
+      <c r="Q49">
+        <v>4.7</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7741.6</v>
+      </c>
+      <c r="U49">
+        <v>74</v>
+      </c>
+      <c r="V49">
+        <v>361.7</v>
+      </c>
+      <c r="W49">
+        <v>-80.400000000000006</v>
+      </c>
+      <c r="X49">
+        <v>-117.7</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>152.69999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>127</v>
+      </c>
+      <c r="D50">
+        <v>2028.4</v>
+      </c>
+      <c r="E50">
+        <v>836.6</v>
+      </c>
+      <c r="F50">
+        <v>744.9</v>
+      </c>
+      <c r="G50">
+        <v>1231.3</v>
+      </c>
+      <c r="H50">
+        <v>19616.900000000001</v>
+      </c>
+      <c r="I50">
+        <v>474.5</v>
+      </c>
+      <c r="J50">
+        <v>7051.1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1695</v>
+      </c>
+      <c r="O50">
+        <v>11911.2</v>
+      </c>
+      <c r="P50">
+        <v>7070.5</v>
+      </c>
+      <c r="Q50">
+        <v>-6.4</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>30000</v>
+      </c>
+      <c r="T50">
+        <v>7705.7</v>
+      </c>
+      <c r="U50">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="V50">
+        <v>457.1</v>
+      </c>
+      <c r="W50">
+        <v>-85.7</v>
+      </c>
+      <c r="X50">
+        <v>-218.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>124.6</v>
+      </c>
+      <c r="D51">
+        <v>1998.6</v>
+      </c>
+      <c r="E51">
+        <v>821.9</v>
+      </c>
+      <c r="F51">
+        <v>770.7</v>
+      </c>
+      <c r="G51">
+        <v>1223.3</v>
+      </c>
+      <c r="H51">
+        <v>19639.099999999999</v>
+      </c>
+      <c r="I51">
+        <v>464.3</v>
+      </c>
+      <c r="J51">
+        <v>7007.8</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-745.5</v>
+      </c>
+      <c r="N51">
+        <v>1675.3</v>
+      </c>
+      <c r="O51">
+        <v>11904.7</v>
+      </c>
+      <c r="P51">
+        <v>7032.9</v>
+      </c>
+      <c r="Q51">
+        <v>62.5</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7734.4</v>
+      </c>
+      <c r="U51">
+        <v>130.1</v>
+      </c>
+      <c r="V51">
+        <v>419.8</v>
+      </c>
+      <c r="W51">
+        <v>-84.9</v>
+      </c>
+      <c r="X51">
+        <v>-135.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>56.3</v>
+      </c>
+      <c r="D52">
+        <v>2111.6999999999998</v>
+      </c>
+      <c r="E52">
+        <v>876.5</v>
+      </c>
+      <c r="F52">
+        <v>701.7</v>
+      </c>
+      <c r="G52">
+        <v>1268.8</v>
+      </c>
+      <c r="H52">
+        <v>19774.2</v>
+      </c>
+      <c r="I52">
+        <v>527.6</v>
+      </c>
+      <c r="J52">
+        <v>7013.3</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1750.8</v>
+      </c>
+      <c r="O52">
+        <v>12061</v>
+      </c>
+      <c r="P52">
+        <v>7028.6</v>
+      </c>
+      <c r="Q52">
+        <v>-33.4</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7713.2</v>
+      </c>
+      <c r="U52">
+        <v>96.7</v>
+      </c>
+      <c r="V52">
+        <v>341.7</v>
+      </c>
+      <c r="W52">
+        <v>-84.9</v>
+      </c>
+      <c r="X52">
+        <v>-94.9</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>171.4</v>
+      </c>
+      <c r="D53">
+        <v>2165.4</v>
+      </c>
+      <c r="E53">
+        <v>906.8</v>
+      </c>
+      <c r="F53">
+        <v>847.8</v>
+      </c>
+      <c r="G53">
+        <v>1290.4000000000001</v>
+      </c>
+      <c r="H53">
+        <v>19826</v>
+      </c>
+      <c r="I53">
+        <v>505.5</v>
+      </c>
+      <c r="J53">
+        <v>7023.6</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1769.2</v>
+      </c>
+      <c r="O53">
+        <v>12086.6</v>
+      </c>
+      <c r="P53">
+        <v>7039.1</v>
+      </c>
+      <c r="Q53">
+        <v>0.6</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7739.4</v>
+      </c>
+      <c r="U53">
+        <v>97.3</v>
+      </c>
+      <c r="V53">
+        <v>375.7</v>
+      </c>
+      <c r="W53">
+        <v>-85.1</v>
+      </c>
+      <c r="X53">
+        <v>-140.4</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>236.6</v>
+      </c>
+      <c r="D54">
+        <v>2141.5</v>
+      </c>
+      <c r="E54">
+        <v>890.7</v>
+      </c>
+      <c r="F54">
+        <v>857.5</v>
+      </c>
+      <c r="G54">
+        <v>1421.9</v>
+      </c>
+      <c r="H54">
+        <v>19949.2</v>
+      </c>
+      <c r="I54">
+        <v>511.4</v>
+      </c>
+      <c r="J54">
+        <v>7006.8</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1717.1</v>
+      </c>
+      <c r="O54">
+        <v>12043.1</v>
+      </c>
+      <c r="P54">
+        <v>7022.5</v>
+      </c>
+      <c r="Q54">
+        <v>116</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>31000</v>
+      </c>
+      <c r="T54">
+        <v>7906.1</v>
+      </c>
+      <c r="U54">
+        <v>213.3</v>
+      </c>
+      <c r="V54">
+        <v>411</v>
+      </c>
+      <c r="W54">
+        <v>-93.6</v>
+      </c>
+      <c r="X54">
+        <v>-97.7</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>236.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>132.5</v>
+      </c>
+      <c r="D55">
+        <v>2077.1999999999998</v>
+      </c>
+      <c r="E55">
+        <v>873.2</v>
+      </c>
+      <c r="F55">
+        <v>752.5</v>
+      </c>
+      <c r="G55">
+        <v>1306.9000000000001</v>
+      </c>
+      <c r="H55">
+        <v>19842.5</v>
+      </c>
+      <c r="I55">
+        <v>491.1</v>
+      </c>
+      <c r="J55">
+        <v>7007.9</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-13.8</v>
+      </c>
+      <c r="N55">
+        <v>1697.4</v>
+      </c>
+      <c r="O55">
+        <v>12017.8</v>
+      </c>
+      <c r="P55">
+        <v>7013.3</v>
+      </c>
+      <c r="Q55">
+        <v>-37.5</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7824.7</v>
+      </c>
+      <c r="U55">
+        <v>175.8</v>
+      </c>
+      <c r="V55">
+        <v>396.4</v>
+      </c>
+      <c r="W55">
+        <v>-93.7</v>
+      </c>
+      <c r="X55">
+        <v>-223.8</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>179</v>
+      </c>
+      <c r="D56">
+        <v>2229.1999999999998</v>
+      </c>
+      <c r="E56">
+        <v>932.8</v>
+      </c>
+      <c r="F56">
+        <v>852.3</v>
+      </c>
+      <c r="G56">
+        <v>1225.0999999999999</v>
+      </c>
+      <c r="H56">
+        <v>19876</v>
+      </c>
+      <c r="I56">
+        <v>522.29999999999995</v>
+      </c>
+      <c r="J56">
+        <v>7042.1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1705.5</v>
+      </c>
+      <c r="O56">
+        <v>12020.5</v>
+      </c>
+      <c r="P56">
+        <v>7052.2</v>
+      </c>
+      <c r="Q56">
+        <v>-126.3</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7855.5</v>
+      </c>
+      <c r="U56">
+        <v>49.5</v>
+      </c>
+      <c r="V56">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-92.9</v>
+      </c>
+      <c r="X56">
+        <v>-139.69999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>185.8</v>
+      </c>
+      <c r="D57">
+        <v>2267.9</v>
+      </c>
+      <c r="E57">
+        <v>955.2</v>
+      </c>
+      <c r="F57">
+        <v>866.8</v>
+      </c>
+      <c r="G57">
+        <v>1360.9</v>
+      </c>
+      <c r="H57">
+        <v>19987</v>
+      </c>
+      <c r="I57">
+        <v>517.29999999999995</v>
+      </c>
+      <c r="J57">
+        <v>7020</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1725</v>
+      </c>
+      <c r="O57">
+        <v>12055.7</v>
+      </c>
+      <c r="P57">
+        <v>7030.5</v>
+      </c>
+      <c r="Q57">
+        <v>63.5</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7931.3</v>
+      </c>
+      <c r="U57">
+        <v>113</v>
+      </c>
+      <c r="V57">
+        <v>379.3</v>
+      </c>
+      <c r="W57">
+        <v>-92.5</v>
+      </c>
+      <c r="X57">
+        <v>-127.4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>185.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>50.3</v>
+      </c>
+      <c r="D58">
+        <v>2229.1</v>
+      </c>
+      <c r="E58">
+        <v>930.4</v>
+      </c>
+      <c r="F58">
+        <v>688.7</v>
+      </c>
+      <c r="G58">
+        <v>1391</v>
+      </c>
+      <c r="H58">
+        <v>20094</v>
+      </c>
+      <c r="I58">
+        <v>527.29999999999995</v>
+      </c>
+      <c r="J58">
+        <v>7050.8</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1826</v>
+      </c>
+      <c r="O58">
+        <v>12346.2</v>
+      </c>
+      <c r="P58">
+        <v>7061.2</v>
+      </c>
+      <c r="Q58">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>31000</v>
+      </c>
+      <c r="T58">
+        <v>7747.8</v>
+      </c>
+      <c r="U58">
+        <v>75.2</v>
+      </c>
+      <c r="V58">
+        <v>428.2</v>
+      </c>
+      <c r="W58">
+        <v>-99.5</v>
+      </c>
+      <c r="X58">
+        <v>-217.2</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>172.4</v>
+      </c>
+      <c r="D59">
+        <v>2169.4</v>
+      </c>
+      <c r="E59">
+        <v>930.4</v>
+      </c>
+      <c r="F59">
+        <v>865.1</v>
+      </c>
+      <c r="G59">
+        <v>1343.7</v>
+      </c>
+      <c r="H59">
+        <v>20593.7</v>
+      </c>
+      <c r="I59">
+        <v>491.6</v>
+      </c>
+      <c r="J59">
+        <v>7554.5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-660.8</v>
+      </c>
+      <c r="N59">
+        <v>1756.4</v>
+      </c>
+      <c r="O59">
+        <v>12829</v>
+      </c>
+      <c r="P59">
+        <v>7564.6</v>
+      </c>
+      <c r="Q59">
+        <v>59.1</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7764.7</v>
+      </c>
+      <c r="U59">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="V59">
+        <v>496.1</v>
+      </c>
+      <c r="W59">
+        <v>-98.7</v>
+      </c>
+      <c r="X59">
+        <v>336.4</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>190.3</v>
+      </c>
+      <c r="D60">
+        <v>2311.4</v>
+      </c>
+      <c r="E60">
+        <v>969.4</v>
+      </c>
+      <c r="F60">
+        <v>891</v>
+      </c>
+      <c r="G60">
+        <v>1340.9</v>
+      </c>
+      <c r="H60">
+        <v>20666.599999999999</v>
+      </c>
+      <c r="I60">
+        <v>544.1</v>
+      </c>
+      <c r="J60">
+        <v>7547.5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1788.2</v>
+      </c>
+      <c r="O60">
+        <v>12901.9</v>
+      </c>
+      <c r="P60">
+        <v>7552.6</v>
+      </c>
+      <c r="Q60">
+        <v>-34.4</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7764.7</v>
+      </c>
+      <c r="U60">
+        <v>99.9</v>
+      </c>
+      <c r="V60">
+        <v>405.1</v>
+      </c>
+      <c r="W60">
+        <v>-98.5</v>
+      </c>
+      <c r="X60">
+        <v>-214.7</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>215</v>
+      </c>
+      <c r="D61">
+        <v>2344</v>
+      </c>
+      <c r="E61">
+        <v>988.8</v>
+      </c>
+      <c r="F61">
+        <v>903.8</v>
+      </c>
+      <c r="G61">
+        <v>1444.3</v>
+      </c>
+      <c r="H61">
+        <v>20791.8</v>
+      </c>
+      <c r="I61">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="J61">
+        <v>7555.6</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1900.5</v>
+      </c>
+      <c r="O61">
+        <v>12989.6</v>
+      </c>
+      <c r="P61">
+        <v>7561</v>
+      </c>
+      <c r="Q61">
+        <v>2.6</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7802.2</v>
+      </c>
+      <c r="U61">
+        <v>102.5</v>
+      </c>
+      <c r="V61">
+        <v>423.3</v>
+      </c>
+      <c r="W61">
+        <v>-97.8</v>
+      </c>
+      <c r="X61">
+        <v>-175.7</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>172.2</v>
+      </c>
+      <c r="D62">
+        <v>2290.1999999999998</v>
+      </c>
+      <c r="E62">
+        <v>962.9</v>
+      </c>
+      <c r="F62">
+        <v>886.5</v>
+      </c>
+      <c r="G62">
+        <v>1230.3</v>
+      </c>
+      <c r="H62">
+        <v>20535.900000000001</v>
+      </c>
+      <c r="I62">
+        <v>577.4</v>
+      </c>
+      <c r="J62">
+        <v>7527.4</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1834.8</v>
+      </c>
+      <c r="O62">
+        <v>12759.3</v>
+      </c>
+      <c r="P62">
+        <v>7532.9</v>
+      </c>
+      <c r="Q62">
+        <v>-70.099999999999994</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>33000</v>
+      </c>
+      <c r="T62">
+        <v>7776.6</v>
+      </c>
+      <c r="U62">
+        <v>32.4</v>
+      </c>
+      <c r="V62">
+        <v>355.2</v>
+      </c>
+      <c r="W62">
+        <v>-104.3</v>
+      </c>
+      <c r="X62">
+        <v>-185.7</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="D63">
+        <v>2248.6</v>
+      </c>
+      <c r="E63">
+        <v>935</v>
+      </c>
+      <c r="F63">
+        <v>867.2</v>
+      </c>
+      <c r="G63">
+        <v>1183.3</v>
+      </c>
+      <c r="H63">
+        <v>20539.2</v>
+      </c>
+      <c r="I63">
+        <v>542.4</v>
+      </c>
+      <c r="J63">
+        <v>7554.9</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-798.6</v>
+      </c>
+      <c r="N63">
+        <v>1810.3</v>
+      </c>
+      <c r="O63">
+        <v>12773.3</v>
+      </c>
+      <c r="P63">
+        <v>7560.4</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7765.9</v>
+      </c>
+      <c r="U63">
+        <v>33.4</v>
+      </c>
+      <c r="V63">
+        <v>431.5</v>
+      </c>
+      <c r="W63">
+        <v>-103.7</v>
+      </c>
+      <c r="X63">
+        <v>-160.30000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>180.7</v>
+      </c>
+      <c r="D64">
+        <v>2350.6999999999998</v>
+      </c>
+      <c r="E64">
+        <v>990.6</v>
+      </c>
+      <c r="F64">
+        <v>910</v>
+      </c>
+      <c r="G64">
+        <v>1259.4000000000001</v>
+      </c>
+      <c r="H64">
+        <v>20645.400000000001</v>
+      </c>
+      <c r="I64">
+        <v>558</v>
+      </c>
+      <c r="J64">
+        <v>7627.9</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1847.7</v>
+      </c>
+      <c r="O64">
+        <v>12887.4</v>
+      </c>
+      <c r="P64">
+        <v>7633.5</v>
+      </c>
+      <c r="Q64">
+        <v>8.6</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7758</v>
+      </c>
+      <c r="U64">
+        <v>42</v>
+      </c>
+      <c r="V64">
+        <v>412.8</v>
+      </c>
+      <c r="W64">
+        <v>-103.4</v>
+      </c>
+      <c r="X64">
+        <v>-157.19999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>85.7</v>
+      </c>
+      <c r="D65">
+        <v>2409.3000000000002</v>
+      </c>
+      <c r="E65">
+        <v>1016.7</v>
+      </c>
+      <c r="F65">
+        <v>932.6</v>
+      </c>
+      <c r="G65">
+        <v>1301.5999999999999</v>
+      </c>
+      <c r="H65">
+        <v>20661.7</v>
+      </c>
+      <c r="I65">
+        <v>542.79999999999995</v>
+      </c>
+      <c r="J65">
+        <v>7759.9</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1817.9</v>
+      </c>
+      <c r="O65">
+        <v>13020.2</v>
+      </c>
+      <c r="P65">
+        <v>7765.6</v>
+      </c>
+      <c r="Q65">
+        <v>13</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7641.5</v>
+      </c>
+      <c r="U65">
+        <v>55</v>
+      </c>
+      <c r="V65">
+        <v>515.29999999999995</v>
+      </c>
+      <c r="W65">
+        <v>-102.8</v>
+      </c>
+      <c r="X65">
+        <v>-267.10000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>189.5</v>
+      </c>
+      <c r="D66">
+        <v>2379.1999999999998</v>
+      </c>
+      <c r="E66">
+        <v>994.8</v>
+      </c>
+      <c r="F66">
+        <v>913.9</v>
+      </c>
+      <c r="G66">
+        <v>1284.5</v>
+      </c>
+      <c r="H66">
+        <v>20629.599999999999</v>
+      </c>
+      <c r="I66">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="J66">
+        <v>7653.1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1812</v>
+      </c>
+      <c r="O66">
+        <v>12935.9</v>
+      </c>
+      <c r="P66">
+        <v>7658.9</v>
+      </c>
+      <c r="Q66">
+        <v>12.8</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>33000</v>
+      </c>
+      <c r="T66">
+        <v>7693.7</v>
+      </c>
+      <c r="U66">
+        <v>67.8</v>
+      </c>
+      <c r="V66">
+        <v>488.2</v>
+      </c>
+      <c r="W66">
+        <v>-109</v>
+      </c>
+      <c r="X66">
+        <v>-266.60000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>187.8</v>
+      </c>
+      <c r="D67">
+        <v>2392.8000000000002</v>
+      </c>
+      <c r="E67">
+        <v>1017.4</v>
+      </c>
+      <c r="F67">
+        <v>908.7</v>
+      </c>
+      <c r="G67">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="H67">
+        <v>20595.8</v>
+      </c>
+      <c r="I67">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="J67">
+        <v>7663.9</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1076.2</v>
+      </c>
+      <c r="N67">
+        <v>1777.2</v>
+      </c>
+      <c r="O67">
+        <v>12910.1</v>
+      </c>
+      <c r="P67">
+        <v>7670.1</v>
+      </c>
+      <c r="Q67">
+        <v>-33.9</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7685.7</v>
+      </c>
+      <c r="U67">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="V67">
+        <v>444.4</v>
+      </c>
+      <c r="W67">
+        <v>-108.6</v>
+      </c>
+      <c r="X67">
+        <v>-187</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>202.9</v>
+      </c>
+      <c r="D68">
+        <v>2526.6999999999998</v>
+      </c>
+      <c r="E68">
+        <v>1074.4000000000001</v>
+      </c>
+      <c r="F68">
+        <v>969.3</v>
+      </c>
+      <c r="G68">
+        <v>1292.8</v>
+      </c>
+      <c r="H68">
+        <v>20761.099999999999</v>
+      </c>
+      <c r="I68">
+        <v>596.5</v>
+      </c>
+      <c r="J68">
+        <v>7075.7</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2543</v>
+      </c>
+      <c r="O68">
+        <v>13096</v>
+      </c>
+      <c r="P68">
+        <v>7781.1</v>
+      </c>
+      <c r="Q68">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7665.1</v>
+      </c>
+      <c r="U68">
+        <v>36</v>
+      </c>
+      <c r="V68">
+        <v>434.8</v>
+      </c>
+      <c r="W68">
+        <v>-108.4</v>
+      </c>
+      <c r="X68">
+        <v>-130.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>202.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>223.3</v>
+      </c>
+      <c r="D69">
+        <v>2562</v>
+      </c>
+      <c r="E69">
+        <v>1126.9000000000001</v>
+      </c>
+      <c r="F69">
+        <v>981.9</v>
+      </c>
+      <c r="G69">
+        <v>1396.7</v>
+      </c>
+      <c r="H69">
+        <v>20948.599999999999</v>
+      </c>
+      <c r="I69">
+        <v>599.29999999999995</v>
+      </c>
+      <c r="J69">
+        <v>7152</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2591.5</v>
+      </c>
+      <c r="O69">
+        <v>13274.4</v>
+      </c>
+      <c r="P69">
+        <v>7857.7</v>
+      </c>
+      <c r="Q69">
+        <v>30.9</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7674.2</v>
+      </c>
+      <c r="U69">
+        <v>63.9</v>
+      </c>
+      <c r="V69">
+        <v>502.9</v>
+      </c>
+      <c r="W69">
+        <v>-107.8</v>
+      </c>
+      <c r="X69">
+        <v>-150.9</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>223.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>664.4</v>
+      </c>
+      <c r="D70">
+        <v>2560</v>
+      </c>
+      <c r="E70">
+        <v>1105.9000000000001</v>
+      </c>
+      <c r="F70">
+        <v>967</v>
+      </c>
+      <c r="G70">
+        <v>1436.8</v>
+      </c>
+      <c r="H70">
+        <v>21147</v>
+      </c>
+      <c r="I70">
+        <v>598.1</v>
+      </c>
+      <c r="J70">
+        <v>7372.3</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2634.8</v>
+      </c>
+      <c r="O70">
+        <v>13185.9</v>
+      </c>
+      <c r="P70">
+        <v>8187.4</v>
+      </c>
+      <c r="Q70">
+        <v>64</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>35000</v>
+      </c>
+      <c r="T70">
+        <v>7961.1</v>
+      </c>
+      <c r="U70">
+        <v>83.3</v>
+      </c>
+      <c r="V70">
+        <v>528.6</v>
+      </c>
+      <c r="W70">
+        <v>-115.7</v>
+      </c>
+      <c r="X70">
+        <v>-46</v>
+      </c>
+      <c r="Y70">
+        <v>108.4</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>664.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>237.7</v>
+      </c>
+      <c r="D71">
+        <v>2427.5</v>
+      </c>
+      <c r="E71">
+        <v>1052.2</v>
+      </c>
+      <c r="F71">
+        <v>957.7</v>
+      </c>
+      <c r="G71">
+        <v>1354</v>
+      </c>
+      <c r="H71">
+        <v>21108.7</v>
+      </c>
+      <c r="I71">
+        <v>572.4</v>
+      </c>
+      <c r="J71">
+        <v>7499.7</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1073.4000000000001</v>
+      </c>
+      <c r="N71">
+        <v>2560.1999999999998</v>
+      </c>
+      <c r="O71">
+        <v>13194.4</v>
+      </c>
+      <c r="P71">
+        <v>8206.7000000000007</v>
+      </c>
+      <c r="Q71">
+        <v>-44.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7914.3</v>
+      </c>
+      <c r="U71">
+        <v>62.6</v>
+      </c>
+      <c r="V71">
+        <v>581.4</v>
+      </c>
+      <c r="W71">
+        <v>-114.4</v>
+      </c>
+      <c r="X71">
+        <v>-349.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>237.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>234.9</v>
+      </c>
+      <c r="D72">
+        <v>2517.8000000000002</v>
+      </c>
+      <c r="E72">
+        <v>1112.2</v>
+      </c>
+      <c r="F72">
+        <v>940.6</v>
+      </c>
+      <c r="G72">
+        <v>1369.4</v>
+      </c>
+      <c r="H72">
+        <v>21203.7</v>
+      </c>
+      <c r="I72">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="J72">
+        <v>8217.2999999999993</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1989.5</v>
+      </c>
+      <c r="O72">
+        <v>13354.9</v>
+      </c>
+      <c r="P72">
+        <v>8259.2000000000007</v>
+      </c>
+      <c r="Q72">
+        <v>-1.5</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7848.8</v>
+      </c>
+      <c r="U72">
+        <v>61.3</v>
+      </c>
+      <c r="V72">
+        <v>609.6</v>
+      </c>
+      <c r="W72">
+        <v>-113.3</v>
+      </c>
+      <c r="X72">
+        <v>-281.8</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>234.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="D73">
+        <v>2565.6999999999998</v>
+      </c>
+      <c r="E73">
+        <v>1156</v>
+      </c>
+      <c r="F73">
+        <v>988.3</v>
+      </c>
+      <c r="G73">
+        <v>1492.1</v>
+      </c>
+      <c r="H73">
+        <v>21402.1</v>
+      </c>
+      <c r="I73">
+        <v>661.3</v>
+      </c>
+      <c r="J73">
+        <v>7560.2</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2675.3</v>
+      </c>
+      <c r="O73">
+        <v>13478.3</v>
+      </c>
+      <c r="P73">
+        <v>8251</v>
+      </c>
+      <c r="Q73">
+        <v>4.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7923.8</v>
+      </c>
+      <c r="U73">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="V73">
+        <v>555.9</v>
+      </c>
+      <c r="W73">
+        <v>-112.3</v>
+      </c>
+      <c r="X73">
+        <v>-226</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>263.39999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="D74">
+        <v>2530</v>
+      </c>
+      <c r="E74">
+        <v>1102.7</v>
+      </c>
+      <c r="F74">
+        <v>964.4</v>
+      </c>
+      <c r="G74">
+        <v>1564.4</v>
+      </c>
+      <c r="H74">
+        <v>21617</v>
+      </c>
+      <c r="I74">
+        <v>761.5</v>
+      </c>
+      <c r="J74">
+        <v>7537.3</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2718.6</v>
+      </c>
+      <c r="O74">
+        <v>13687.5</v>
+      </c>
+      <c r="P74">
+        <v>8337.5</v>
+      </c>
+      <c r="Q74">
+        <v>-3.6</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>36000</v>
+      </c>
+      <c r="T74">
+        <v>7929.5</v>
+      </c>
+      <c r="U74">
+        <v>70.5</v>
+      </c>
+      <c r="V74">
+        <v>495.9</v>
+      </c>
+      <c r="W74">
+        <v>-121.8</v>
+      </c>
+      <c r="X74">
+        <v>-202.1</v>
+      </c>
+      <c r="Y74">
+        <v>109.5</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>300.89999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>234.2</v>
+      </c>
+      <c r="D75">
+        <v>2470.6</v>
+      </c>
+      <c r="E75">
+        <v>1073.7</v>
+      </c>
+      <c r="F75">
+        <v>964.5</v>
+      </c>
+      <c r="G75">
+        <v>1444.6</v>
+      </c>
+      <c r="H75">
+        <v>21782</v>
+      </c>
+      <c r="I75">
+        <v>629.6</v>
+      </c>
+      <c r="J75">
+        <v>6711.2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1052.5999999999999</v>
+      </c>
+      <c r="N75">
+        <v>3467.9</v>
+      </c>
+      <c r="O75">
+        <v>13859.4</v>
+      </c>
+      <c r="P75">
+        <v>8657.6</v>
+      </c>
+      <c r="Q75">
+        <v>3.2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7922.6</v>
+      </c>
+      <c r="U75">
+        <v>68</v>
+      </c>
+      <c r="V75">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="W75">
+        <v>-121</v>
+      </c>
+      <c r="X75">
+        <v>-191.4</v>
+      </c>
+      <c r="Y75">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>234.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>251.5</v>
+      </c>
+      <c r="D76">
+        <v>2605.3000000000002</v>
+      </c>
+      <c r="E76">
+        <v>1147</v>
+      </c>
+      <c r="F76">
+        <v>988.3</v>
+      </c>
+      <c r="G76">
+        <v>1474.1</v>
+      </c>
+      <c r="H76">
+        <v>21996.799999999999</v>
+      </c>
+      <c r="I76">
+        <v>719.6</v>
+      </c>
+      <c r="J76">
+        <v>6782.8</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3571</v>
+      </c>
+      <c r="O76">
+        <v>14041.6</v>
+      </c>
+      <c r="P76">
+        <v>8730</v>
+      </c>
+      <c r="Q76">
+        <v>7.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>7955.2</v>
+      </c>
+      <c r="U76">
+        <v>72.5</v>
+      </c>
+      <c r="V76">
+        <v>581.9</v>
+      </c>
+      <c r="W76">
+        <v>-120.7</v>
+      </c>
+      <c r="X76">
+        <v>-171.2</v>
+      </c>
+      <c r="Y76">
+        <v>319</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>298.3</v>
+      </c>
+      <c r="D77">
+        <v>2646.9</v>
+      </c>
+      <c r="E77">
+        <v>1162.9000000000001</v>
+      </c>
+      <c r="F77">
+        <v>1015.5</v>
+      </c>
+      <c r="G77">
+        <v>1473.9</v>
+      </c>
+      <c r="H77">
+        <v>22329.1</v>
+      </c>
+      <c r="I77">
+        <v>697.2</v>
+      </c>
+      <c r="J77">
+        <v>7626.2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2997.4</v>
+      </c>
+      <c r="O77">
+        <v>14350.6</v>
+      </c>
+      <c r="P77">
+        <v>8936.1</v>
+      </c>
+      <c r="Q77">
+        <v>-15.1</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>7978.5</v>
+      </c>
+      <c r="U77">
+        <v>55.6</v>
+      </c>
+      <c r="V77">
+        <v>651.29999999999995</v>
+      </c>
+      <c r="W77">
+        <v>-120.2</v>
+      </c>
+      <c r="X77">
+        <v>-112.4</v>
+      </c>
+      <c r="Y77">
+        <v>331.4</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>298.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>289.3</v>
+      </c>
+      <c r="D78">
+        <v>2576.6999999999998</v>
+      </c>
+      <c r="E78">
+        <v>1125.9000000000001</v>
+      </c>
+      <c r="F78">
+        <v>1112.7</v>
+      </c>
+      <c r="G78">
+        <v>1606</v>
+      </c>
+      <c r="H78">
+        <v>22683.8</v>
+      </c>
+      <c r="I78">
+        <v>777.9</v>
+      </c>
+      <c r="J78">
+        <v>7671.2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3064.6</v>
+      </c>
+      <c r="O78">
+        <v>14562.9</v>
+      </c>
+      <c r="P78">
+        <v>8990.4</v>
+      </c>
+      <c r="Q78">
+        <v>48.8</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>36000</v>
+      </c>
+      <c r="T78">
+        <v>8120.9</v>
+      </c>
+      <c r="U78">
+        <v>47.1</v>
+      </c>
+      <c r="V78">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="W78">
+        <v>-129.30000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-114</v>
+      </c>
+      <c r="Y78">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>289.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>246.3</v>
+      </c>
+      <c r="D79">
+        <v>2553.9</v>
+      </c>
+      <c r="E79">
+        <v>1095.3</v>
+      </c>
+      <c r="F79">
+        <v>995.8</v>
+      </c>
+      <c r="G79">
+        <v>1753.9</v>
+      </c>
+      <c r="H79">
+        <v>22908.9</v>
+      </c>
+      <c r="I79">
+        <v>660.6</v>
+      </c>
+      <c r="J79">
+        <v>8958.2999999999993</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-2688.7</v>
+      </c>
+      <c r="N79">
+        <v>1980.6</v>
+      </c>
+      <c r="O79">
+        <v>14788.7</v>
+      </c>
+      <c r="P79">
+        <v>9358.2999999999993</v>
+      </c>
+      <c r="Q79">
+        <v>166</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8120.2</v>
+      </c>
+      <c r="U79">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="V79">
+        <v>569.5</v>
+      </c>
+      <c r="W79">
+        <v>-129.19999999999999</v>
+      </c>
+      <c r="X79">
+        <v>31.9</v>
+      </c>
+      <c r="Y79">
+        <v>340.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>246.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>225.5</v>
+      </c>
+      <c r="D80">
+        <v>2454.4</v>
+      </c>
+      <c r="E80">
+        <v>1066.5</v>
+      </c>
+      <c r="F80">
+        <v>986.3</v>
+      </c>
+      <c r="G80">
+        <v>1568.8</v>
+      </c>
+      <c r="H80">
+        <v>22826.3</v>
+      </c>
+      <c r="I80">
+        <v>657.4</v>
+      </c>
+      <c r="J80">
+        <v>8600.5</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2066.1</v>
+      </c>
+      <c r="O80">
+        <v>14595.4</v>
+      </c>
+      <c r="P80">
+        <v>9044.5</v>
+      </c>
+      <c r="Q80">
+        <v>7.3</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>8230.9</v>
+      </c>
+      <c r="U80">
+        <v>269.7</v>
+      </c>
+      <c r="V80">
+        <v>764</v>
+      </c>
+      <c r="W80">
+        <v>-128.69999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-470.3</v>
+      </c>
+      <c r="Y80">
+        <v>349.6</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>260</v>
+      </c>
+      <c r="D81">
+        <v>2572.1</v>
+      </c>
+      <c r="E81">
+        <v>1097.2</v>
+      </c>
+      <c r="F81">
+        <v>1036.7</v>
+      </c>
+      <c r="G81">
+        <v>1774.3</v>
+      </c>
+      <c r="H81">
+        <v>23110.1</v>
+      </c>
+      <c r="I81">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="J81">
+        <v>8494.6</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2190.8000000000002</v>
+      </c>
+      <c r="O81">
+        <v>14736</v>
+      </c>
+      <c r="P81">
+        <v>9142</v>
+      </c>
+      <c r="Q81">
+        <v>138.5</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8374.1</v>
+      </c>
+      <c r="U81">
+        <v>406.4</v>
+      </c>
+      <c r="V81">
+        <v>575.5</v>
+      </c>
+      <c r="W81">
+        <v>-129.19999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-125.9</v>
+      </c>
+      <c r="Y81">
+        <v>427.3</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>235.4</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2573.1999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1091.3</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1112</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1521.8</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>23434</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>779</v>
       </c>
-      <c r="J42">
-        <v>8677.7999999999993</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>8668.4</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2282</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14945.2</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>9277.2999999999993</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-375</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>35000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8488.7999999999993</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>38.200000000000003</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>562.6</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-135.4</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-47.7</v>
       </c>
-      <c r="Y42">
-        <v>397.9</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y82">
+        <v>407.3</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>235.4</v>
       </c>
     </row>
